--- a/config_10.26/game_module_config.xlsx
+++ b/config_10.26/game_module_config.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4839" uniqueCount="1027">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1319" uniqueCount="1030">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -3957,10 +3957,6 @@
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
-    <t>act_ty_by_hhl_style/act_017_hhl</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
     <t>act_061_xyhl</t>
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
@@ -3973,10 +3969,6 @@
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
-    <t>act_ty_by_drop_style/act_025_huanlequan</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
     <t>act_ty_sjb_style/act_032_dlphb</t>
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
@@ -3994,6 +3986,26 @@
   </si>
   <si>
     <t>act_ty_gifts_style/act_010_khlb</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_062_hghd</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>回归活动</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_062_HGHDManager</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>永久</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>永久</t>
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
 </sst>
@@ -4659,13 +4671,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I348"/>
+  <dimension ref="A1:I349"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C312" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D330" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B335" sqref="B335"/>
+      <selection pane="bottomRight" activeCell="I347" sqref="I347"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -12733,7 +12745,7 @@
         <v>316</v>
       </c>
       <c r="B317" s="44" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="C317" s="37" t="s">
         <v>929</v>
@@ -12756,7 +12768,7 @@
         <v>317</v>
       </c>
       <c r="B318" s="44" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="C318" s="56" t="s">
         <v>1001</v>
@@ -12779,7 +12791,7 @@
         <v>318</v>
       </c>
       <c r="B319" s="44" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="C319" s="37" t="s">
         <v>930</v>
@@ -12825,7 +12837,7 @@
         <v>320</v>
       </c>
       <c r="B321" s="48" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="C321" s="37" t="s">
         <v>934</v>
@@ -13184,7 +13196,7 @@
         <v>334</v>
       </c>
       <c r="B335" s="36" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="C335" s="56" t="s">
         <v>1002</v>
@@ -13508,8 +13520,8 @@
         <v>1</v>
       </c>
       <c r="H347" s="5"/>
-      <c r="I347" s="57">
-        <v>44487</v>
+      <c r="I347" s="57" t="s">
+        <v>1029</v>
       </c>
     </row>
     <row r="348" spans="1:9">
@@ -13517,13 +13529,13 @@
         <v>347</v>
       </c>
       <c r="B348" s="8" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C348" s="59" t="s">
         <v>1018</v>
       </c>
-      <c r="C348" s="59" t="s">
+      <c r="D348" s="59" t="s">
         <v>1019</v>
-      </c>
-      <c r="D348" s="59" t="s">
-        <v>1020</v>
       </c>
       <c r="E348" s="5">
         <v>1</v>
@@ -13536,6 +13548,32 @@
       </c>
       <c r="I348" s="57">
         <v>44501</v>
+      </c>
+    </row>
+    <row r="349" spans="1:9">
+      <c r="A349" s="5">
+        <v>348</v>
+      </c>
+      <c r="B349" s="8" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C349" s="59" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D349" s="59" t="s">
+        <v>1027</v>
+      </c>
+      <c r="E349" s="5">
+        <v>1</v>
+      </c>
+      <c r="F349" s="5">
+        <v>1</v>
+      </c>
+      <c r="G349" s="5">
+        <v>1</v>
+      </c>
+      <c r="I349" t="s">
+        <v>1028</v>
       </c>
     </row>
   </sheetData>
